--- a/biology/Botanique/Dactyladenia_mannii/Dactyladenia_mannii.xlsx
+++ b/biology/Botanique/Dactyladenia_mannii/Dactyladenia_mannii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dactyladenia mannii est une espèce de plantes à fleurs de la famille des Chrysobalanaceae. C'est un arbuste endémique au Cameroun.
 </t>
@@ -511,10 +523,12 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Acioa mannii (Oliv.) Engl., 1899[1],[2]
-Griffonia mannii Oliv., 1871 (basionyme)[2]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Acioa mannii (Oliv.) Engl., 1899,
+Griffonia mannii Oliv., 1871 (basionyme)</t>
         </is>
       </c>
     </row>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arbuste grimpant atteignant 4 à 6 m de haut[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arbuste grimpant atteignant 4 à 6 m de haut.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce était connue à Bioko d'où elle a disparu. Une population subsiste près du Mont Cameroun, sur des sites limités vers Buéa et Kumba. Ces sites étant menacés par la déforestation et l'exploitation du bois, l'espèce est menacée de disparition.
 </t>
